--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxnb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H2">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I2">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J2">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N2">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P2">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q2">
-        <v>8.729911067623192</v>
+        <v>7.663221001629444</v>
       </c>
       <c r="R2">
-        <v>8.729911067623192</v>
+        <v>68.968989014665</v>
       </c>
       <c r="S2">
-        <v>0.001947050655827631</v>
+        <v>0.001297830784430246</v>
       </c>
       <c r="T2">
-        <v>0.001947050655827631</v>
+        <v>0.001297830784430246</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H3">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I3">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J3">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N3">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P3">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q3">
-        <v>44.62045233586609</v>
+        <v>31.55317105140034</v>
       </c>
       <c r="R3">
-        <v>44.62045233586609</v>
+        <v>283.9785394626031</v>
       </c>
       <c r="S3">
-        <v>0.009951794504079309</v>
+        <v>0.005343794303752068</v>
       </c>
       <c r="T3">
-        <v>0.009951794504079309</v>
+        <v>0.005343794303752068</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H4">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I4">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J4">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N4">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P4">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q4">
-        <v>58.16376150970514</v>
+        <v>47.65133189897367</v>
       </c>
       <c r="R4">
-        <v>58.16376150970514</v>
+        <v>428.861987090763</v>
       </c>
       <c r="S4">
-        <v>0.01297238758970613</v>
+        <v>0.008070152934965746</v>
       </c>
       <c r="T4">
-        <v>0.01297238758970613</v>
+        <v>0.008070152934965748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H5">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I5">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J5">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N5">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P5">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q5">
-        <v>20.63792145826713</v>
+        <v>15.92782284545711</v>
       </c>
       <c r="R5">
-        <v>20.63792145826713</v>
+        <v>143.350405609114</v>
       </c>
       <c r="S5">
-        <v>0.004602919571456576</v>
+        <v>0.002697510461122047</v>
       </c>
       <c r="T5">
-        <v>0.004602919571456576</v>
+        <v>0.002697510461122047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H6">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J6">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N6">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P6">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q6">
-        <v>273.9513486853473</v>
+        <v>10.99399464482111</v>
       </c>
       <c r="R6">
-        <v>273.9513486853473</v>
+        <v>98.94595180339</v>
       </c>
       <c r="S6">
-        <v>0.06109995267888707</v>
+        <v>0.001861925251911201</v>
       </c>
       <c r="T6">
-        <v>0.06109995267888707</v>
+        <v>0.001861925251911201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H7">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J7">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N7">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P7">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q7">
-        <v>1400.224240736605</v>
+        <v>45.26757005865535</v>
       </c>
       <c r="R7">
-        <v>1400.224240736605</v>
+        <v>407.4081305278981</v>
       </c>
       <c r="S7">
-        <v>0.3122949942002352</v>
+        <v>0.007666442863383915</v>
       </c>
       <c r="T7">
-        <v>0.3122949942002352</v>
+        <v>0.007666442863383914</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H8">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J8">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N8">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P8">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q8">
-        <v>1825.223737878789</v>
+        <v>68.36270121982868</v>
       </c>
       <c r="R8">
-        <v>1825.223737878789</v>
+        <v>615.2643109784581</v>
       </c>
       <c r="S8">
-        <v>0.4070835370876941</v>
+        <v>0.0115777971340035</v>
       </c>
       <c r="T8">
-        <v>0.4070835370876941</v>
+        <v>0.0115777971340035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H9">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J9">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.6749811570679</v>
+        <v>18.24393266666667</v>
       </c>
       <c r="N9">
-        <v>16.6749811570679</v>
+        <v>54.731798</v>
       </c>
       <c r="O9">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="P9">
-        <v>0.156168005149589</v>
+        <v>0.1549466230948692</v>
       </c>
       <c r="Q9">
-        <v>647.6339075804414</v>
+        <v>22.85075675481378</v>
       </c>
       <c r="R9">
-        <v>647.6339075804414</v>
+        <v>205.656810793324</v>
       </c>
       <c r="S9">
-        <v>0.1444431695492659</v>
+        <v>0.003869967414174643</v>
       </c>
       <c r="T9">
-        <v>0.1444431695492659</v>
+        <v>0.003869967414174642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H10">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I10">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J10">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.05357382282228</v>
+        <v>8.777551666666666</v>
       </c>
       <c r="N10">
-        <v>7.05357382282228</v>
+        <v>26.332655</v>
       </c>
       <c r="O10">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="P10">
-        <v>0.06605959807148648</v>
+        <v>0.07454818073713242</v>
       </c>
       <c r="Q10">
-        <v>13.50744730553919</v>
+        <v>400.5501669869383</v>
       </c>
       <c r="R10">
-        <v>13.50744730553919</v>
+        <v>3604.951502882445</v>
       </c>
       <c r="S10">
-        <v>0.00301259473677177</v>
+        <v>0.06783653209450546</v>
       </c>
       <c r="T10">
-        <v>0.00301259473677177</v>
+        <v>0.06783653209450546</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H11">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I11">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J11">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.0523322770164</v>
+        <v>36.14140700000001</v>
       </c>
       <c r="N11">
-        <v>36.0523322770164</v>
+        <v>108.424221</v>
       </c>
       <c r="O11">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="P11">
-        <v>0.3376448080905537</v>
+        <v>0.306950758417288</v>
       </c>
       <c r="Q11">
-        <v>69.03946718441517</v>
+        <v>1649.257920516511</v>
       </c>
       <c r="R11">
-        <v>69.03946718441517</v>
+        <v>14843.3212846486</v>
       </c>
       <c r="S11">
-        <v>0.01539801938623917</v>
+        <v>0.2793156689930528</v>
       </c>
       <c r="T11">
-        <v>0.01539801938623917</v>
+        <v>0.2793156689930528</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H12">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I12">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J12">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.9950246278319</v>
+        <v>54.580447</v>
       </c>
       <c r="N12">
-        <v>46.9950246278319</v>
+        <v>163.741341</v>
       </c>
       <c r="O12">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="P12">
-        <v>0.4401275886883708</v>
+        <v>0.4635544377507104</v>
       </c>
       <c r="Q12">
-        <v>89.99449565964366</v>
+        <v>2490.695354502431</v>
       </c>
       <c r="R12">
-        <v>89.99449565964366</v>
+        <v>22416.25819052188</v>
       </c>
       <c r="S12">
-        <v>0.02007166401097057</v>
+        <v>0.4218201595678015</v>
       </c>
       <c r="T12">
-        <v>0.02007166401097057</v>
+        <v>0.4218201595678015</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>45.633473</v>
+      </c>
+      <c r="H13">
+        <v>136.900419</v>
+      </c>
+      <c r="I13">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="J13">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.24393266666667</v>
+      </c>
+      <c r="N13">
+        <v>54.731798</v>
+      </c>
+      <c r="O13">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="P13">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="Q13">
+        <v>832.5340087581515</v>
+      </c>
+      <c r="R13">
+        <v>7492.806078823362</v>
+      </c>
+      <c r="S13">
+        <v>0.140996620797143</v>
+      </c>
+      <c r="T13">
+        <v>0.140996620797143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J14">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.777551666666666</v>
+      </c>
+      <c r="N14">
+        <v>26.332655</v>
+      </c>
+      <c r="O14">
+        <v>0.07454818073713242</v>
+      </c>
+      <c r="P14">
+        <v>0.07454818073713242</v>
+      </c>
+      <c r="Q14">
+        <v>20.97264014889944</v>
+      </c>
+      <c r="R14">
+        <v>188.753761340095</v>
+      </c>
+      <c r="S14">
+        <v>0.003551892606285506</v>
+      </c>
+      <c r="T14">
+        <v>0.003551892606285507</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J15">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>36.14140700000001</v>
+      </c>
+      <c r="N15">
+        <v>108.424221</v>
+      </c>
+      <c r="O15">
+        <v>0.306950758417288</v>
+      </c>
+      <c r="P15">
+        <v>0.306950758417288</v>
+      </c>
+      <c r="Q15">
+        <v>86.35445876831436</v>
+      </c>
+      <c r="R15">
+        <v>777.1901289148292</v>
+      </c>
+      <c r="S15">
+        <v>0.01462485225709925</v>
+      </c>
+      <c r="T15">
+        <v>0.01462485225709925</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.91497922114815</v>
-      </c>
-      <c r="H13">
-        <v>1.91497922114815</v>
-      </c>
-      <c r="I13">
-        <v>0.04560419416284801</v>
-      </c>
-      <c r="J13">
-        <v>0.04560419416284801</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.6749811570679</v>
-      </c>
-      <c r="N13">
-        <v>16.6749811570679</v>
-      </c>
-      <c r="O13">
-        <v>0.156168005149589</v>
-      </c>
-      <c r="P13">
-        <v>0.156168005149589</v>
-      </c>
-      <c r="Q13">
-        <v>31.93224242882197</v>
-      </c>
-      <c r="R13">
-        <v>31.93224242882197</v>
-      </c>
-      <c r="S13">
-        <v>0.007121916028866505</v>
-      </c>
-      <c r="T13">
-        <v>0.007121916028866505</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J16">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.580447</v>
+      </c>
+      <c r="N16">
+        <v>163.741341</v>
+      </c>
+      <c r="O16">
+        <v>0.4635544377507104</v>
+      </c>
+      <c r="P16">
+        <v>0.4635544377507104</v>
+      </c>
+      <c r="Q16">
+        <v>130.4117728459677</v>
+      </c>
+      <c r="R16">
+        <v>1173.705955613709</v>
+      </c>
+      <c r="S16">
+        <v>0.02208632811393967</v>
+      </c>
+      <c r="T16">
+        <v>0.02208632811393967</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J17">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>18.24393266666667</v>
+      </c>
+      <c r="N17">
+        <v>54.731798</v>
+      </c>
+      <c r="O17">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="P17">
+        <v>0.1549466230948692</v>
+      </c>
+      <c r="Q17">
+        <v>43.59113443578912</v>
+      </c>
+      <c r="R17">
+        <v>392.3202099221021</v>
+      </c>
+      <c r="S17">
+        <v>0.007382524422429562</v>
+      </c>
+      <c r="T17">
+        <v>0.007382524422429562</v>
       </c>
     </row>
   </sheetData>
